--- a/pytania.xlsx
+++ b/pytania.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.operacyjny\Desktop\STRONA\Nowy folder (2)\straz\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.operacyjny\Desktop\Straz pliki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F856AA-FBD7-4D7B-A552-91E7303D79A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7102D9-6238-4B5C-99CE-230DCFAE1643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="354">
   <si>
     <t>Pytanie</t>
   </si>
@@ -521,6 +521,604 @@
   </si>
   <si>
     <t>Szkoła Główna Służby Pożarniczej</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaka jest normatywna szerokość poziomych dróg ewakuacyjnych w nowo
+projektowanych budynkach, jeżeli są one przeznaczone do ewakuacji dla
+nie więcej niż 20 osób?</t>
+  </si>
+  <si>
+    <t>1,2 m</t>
+  </si>
+  <si>
+    <t>0,9 m</t>
+  </si>
+  <si>
+    <t>Pytanie: W Warszawie w ,,Domu Strażaka” przy ul. Oboźnej posiada swoją
+siedzibę:</t>
+  </si>
+  <si>
+    <t>Centrum Zarządzania Kryzysowego Państwa</t>
+  </si>
+  <si>
+    <t>Zarząd Główny ZOSP RP</t>
+  </si>
+  <si>
+    <t>Komenda Główna PSP</t>
+  </si>
+  <si>
+    <t>Pytanie: W jakiej odległości od skraju drogi publicznej zabronione jest
+pozostawienie gałęzi, chrustu itp.?</t>
+  </si>
+  <si>
+    <t>do 50 m</t>
+  </si>
+  <si>
+    <t>do 25 m</t>
+  </si>
+  <si>
+    <t>75 m</t>
+  </si>
+  <si>
+    <t>Pytanie: Środki zwilżające są to środki, które:</t>
+  </si>
+  <si>
+    <t>zmniejszają opory tłoczenia wody</t>
+  </si>
+  <si>
+    <t>zwiększają napięcie powierzchniowe wody</t>
+  </si>
+  <si>
+    <t>obniżają napięcie powierzchniowe wody</t>
+  </si>
+  <si>
+    <t>Pytanie: Pożary butli z acetylenem to pożary grupy:</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Pytanie: Środkiem uodparniającym drewno na działanie ognia jest:</t>
+  </si>
+  <si>
+    <t>farba olejna</t>
+  </si>
+  <si>
+    <t>Pyran</t>
+  </si>
+  <si>
+    <t>Fobos</t>
+  </si>
+  <si>
+    <t>Pytanie: Sterty i stogi można ustawiać od budynków palnych w odległości co
+najmniej:</t>
+  </si>
+  <si>
+    <t>30 m</t>
+  </si>
+  <si>
+    <t>50 m</t>
+  </si>
+  <si>
+    <t>Pytanie: Obowiązujące miano określające gęstość obciążenia ogniowego to:</t>
+  </si>
+  <si>
+    <t>kg/m 2</t>
+  </si>
+  <si>
+    <t>MJ/m 3</t>
+  </si>
+  <si>
+    <t>kcal/kg</t>
+  </si>
+  <si>
+    <t>Pytanie: Przy poborze wody z otwartego zbiornika smok ssawny powinien być
+zanurzony:</t>
+  </si>
+  <si>
+    <t>15–20 cm od dna zbiornika</t>
+  </si>
+  <si>
+    <t>20–40 cm poniżej lustra wody</t>
+  </si>
+  <si>
+    <t>15–20 cm poniżej lustra wody</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaka jest minimalna pojemność przeciwpożarowego zbiornika wodnego?</t>
+  </si>
+  <si>
+    <t>50 m 3</t>
+  </si>
+  <si>
+    <t>75 m 3</t>
+  </si>
+  <si>
+    <t>100 m 3</t>
+  </si>
+  <si>
+    <t>Pytanie: Które z wymienionych substancji można gasić wodą?</t>
+  </si>
+  <si>
+    <t>sód</t>
+  </si>
+  <si>
+    <t>magnez</t>
+  </si>
+  <si>
+    <t>słoma</t>
+  </si>
+  <si>
+    <t>Pytanie: Zaczadzenie następuje na skutek działania:</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>Prezydent RP na wniosek Ministra Spraw Wewnętrznych i Administracji</t>
+  </si>
+  <si>
+    <t>Prezesa Rady Ministrów Minister Spraw Wewnętrznych i Administracji</t>
+  </si>
+  <si>
+    <t>Prezes Rady Ministrów na wniosek</t>
+  </si>
+  <si>
+    <t>Pytanie: Ile jest stopni zagrożenia pożarowego lasu?</t>
+  </si>
+  <si>
+    <t>Pytanie: Gaz propan – butan jest szczególnie niebezpieczny ponieważ:</t>
+  </si>
+  <si>
+    <t>jest lżejszy od powietrza</t>
+  </si>
+  <si>
+    <t>rozchodzi się we wszystkich kierunkach</t>
+  </si>
+  <si>
+    <t>jest cięższy od powietrza</t>
+  </si>
+  <si>
+    <t>Pytanie: Prądownica pianowa PP 2 – 12 oznacza:</t>
+  </si>
+  <si>
+    <t>ciśnienie 2 atm.; nominalna wydajność wodna 120 l/min</t>
+  </si>
+  <si>
+    <t>liczba spienienia 2; nominalna wydajność wodna 12 l/s</t>
+  </si>
+  <si>
+    <t>nominalna wydajność wodna 200 l/min; liczba spienienia 12</t>
+  </si>
+  <si>
+    <t>Pytanie: Klapa dymowa to:</t>
+  </si>
+  <si>
+    <t>urządzenie służące do gaszenia cieczy palnych w zbiornikach</t>
+  </si>
+  <si>
+    <t>urządzenie służące do zamykania zbiorników z gazami palnymi</t>
+  </si>
+  <si>
+    <t>pokrywa zamontowana w dachu budynku umożliwiająca usunięcie z pomieszczeń dymu i gorących gazów pożarowych</t>
+  </si>
+  <si>
+    <t>Pytanie: Linia zasilająca to:</t>
+  </si>
+  <si>
+    <t>linia wężowa od nasady tłocznej pompy pożarniczej ustawionej na stanowisku wodnym do rozdzielcza</t>
+  </si>
+  <si>
+    <t>linia wężowa od punktu czerpania wody do nasady ssawnej pompy pożarniczej</t>
+  </si>
+  <si>
+    <t>linia wężowa od nasady hydrantu do nasady ssawnej pompy pożarniczej lub bezpośrednio do zbiornika wodnego samochodu gaśniczego</t>
+  </si>
+  <si>
+    <t>Pytanie: Nomex to:</t>
+  </si>
+  <si>
+    <t>środek gaśniczy</t>
+  </si>
+  <si>
+    <t>ubranie strażackie</t>
+  </si>
+  <si>
+    <t>środek ogniochronny</t>
+  </si>
+  <si>
+    <t>Pytanie: W czasie akcji gaśniczej znak sygnalizacyjny wykonany przez strażaka
+prawą ręką odchyloną w bok w dół oznacza:</t>
+  </si>
+  <si>
+    <t>woda naprzód</t>
+  </si>
+  <si>
+    <t>woda stój</t>
+  </si>
+  <si>
+    <t>rota I (I woda)</t>
+  </si>
+  <si>
+    <t>Pytanie: Lekka woda to:</t>
+  </si>
+  <si>
+    <t>środek niezbędny do wytwarzania piany lekkiej</t>
+  </si>
+  <si>
+    <t>nowoczesny wypełniacz poduszek amortyzujący upadek ludzi podczas ich ewakuacji z wyższych kondygnacji budynku</t>
+  </si>
+  <si>
+    <t>środek gaśniczy skuteczny przy gaszeniu pożarów z grupy B</t>
+  </si>
+  <si>
+    <t>Pytanie: Co oznacza symbol GBAM:</t>
+  </si>
+  <si>
+    <t>Pytanie: Hydrant wewnętrzny 52 posiada wydajność nominalną:</t>
+  </si>
+  <si>
+    <t>1,0 dm 3 /s</t>
+  </si>
+  <si>
+    <t>2,5 dm 3 /s</t>
+  </si>
+  <si>
+    <t>3,0 dm 3 /s</t>
+  </si>
+  <si>
+    <t>Pytanie: Z przewodów dymowych i spalinowych w budynkach opalanych paliwem
+płynnym należy usuwać zanieczyszczenia:</t>
+  </si>
+  <si>
+    <t>Pytanie: Prezesem Zarządu Wojewódzkiego OSP woj. mazowieckiego jest:</t>
+  </si>
+  <si>
+    <t>dh Zygmunt Politowski</t>
+  </si>
+  <si>
+    <t>dh Stanisław Kwaśnik</t>
+  </si>
+  <si>
+    <t>dh Witold Sojka</t>
+  </si>
+  <si>
+    <t>Pytanie: Resuscytacja to:</t>
+  </si>
+  <si>
+    <t>śmierć kliniczna</t>
+  </si>
+  <si>
+    <t>zespół czynności ratunkowych</t>
+  </si>
+  <si>
+    <t>wstrząs powypadkowy</t>
+  </si>
+  <si>
+    <t>Pytanie: Stacja paliw może być zlokalizowana od lasu w odległości:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 m  </t>
+  </si>
+  <si>
+    <t>Pytanie: Ubranie ochronne typu ciężkiego chroni przed temperaturą:</t>
+  </si>
+  <si>
+    <t>200 0 C</t>
+  </si>
+  <si>
+    <t>900 0 C</t>
+  </si>
+  <si>
+    <t>1400 0 C</t>
+  </si>
+  <si>
+    <t>Pytanie: Kromos to:</t>
+  </si>
+  <si>
+    <t>środek ognioochronny</t>
+  </si>
+  <si>
+    <t>środek zwilżający</t>
+  </si>
+  <si>
+    <t>Pytanie: Ile butli z gazem płynnym o zawartości do 11 kg może być stosowanych
+jednocześnie w mieszkaniu?</t>
+  </si>
+  <si>
+    <t>Pytanie: Do gazów gaśniczych nie zalicza się:</t>
+  </si>
+  <si>
+    <t>azot</t>
+  </si>
+  <si>
+    <t>Pytanie: Co to jest strefa pożarowa?</t>
+  </si>
+  <si>
+    <t>strefa objęta pożarem</t>
+  </si>
+  <si>
+    <t>pomieszczenie zamykane drzwiami</t>
+  </si>
+  <si>
+    <t>wydzielona pożarowo przestrzeń</t>
+  </si>
+  <si>
+    <t>Pytanie: W przeciwpożarowy wyłącznik prądu należy wyposażać budynki:</t>
+  </si>
+  <si>
+    <t>użyteczności publicznej</t>
+  </si>
+  <si>
+    <t>których kubatura przekracza 1000 m 3</t>
+  </si>
+  <si>
+    <t>produkcyjno - magazynowe</t>
+  </si>
+  <si>
+    <t>Pytanie: Eksplozymetr służy do:</t>
+  </si>
+  <si>
+    <t>pomiaru stężeń gazu i par cieczy w powietrzu</t>
+  </si>
+  <si>
+    <t>tłumienia fali detonacyjnej</t>
+  </si>
+  <si>
+    <t>pomiaru temperatury zapłonu</t>
+  </si>
+  <si>
+    <t>Pytanie: Minimalna głębokość przeciwpożarowego zbiornika wodnego w miejscu
+czerpania powinna wynosić:</t>
+  </si>
+  <si>
+    <t>Pytanie: Podaj obowiązującą jednostkę miary odporności ogniowej elementów
+budowlanych:</t>
+  </si>
+  <si>
+    <t>godziny</t>
+  </si>
+  <si>
+    <t>minuty</t>
+  </si>
+  <si>
+    <t>nie stosuje się</t>
+  </si>
+  <si>
+    <t>Pytanie: Drzwi powinny otwierać się na zewnątrz pomieszczeń, w których może
+przebywać jednocześnie:</t>
+  </si>
+  <si>
+    <t>50 osób</t>
+  </si>
+  <si>
+    <t>więcej niż 50 osób</t>
+  </si>
+  <si>
+    <t>nie stawia się wymagań</t>
+  </si>
+  <si>
+    <t>Pytanie: Jak przed wojną nazywano kobiety działające w szeregach OSP?</t>
+  </si>
+  <si>
+    <t>ochotniczki</t>
+  </si>
+  <si>
+    <t>druhny</t>
+  </si>
+  <si>
+    <t>samarytanki</t>
+  </si>
+  <si>
+    <t>Pytanie: Co oznacza skrót NRO?</t>
+  </si>
+  <si>
+    <t>element budynku najlepiej rozprzestrzeniający ogień</t>
+  </si>
+  <si>
+    <t>element budynku nie rozprzestrzeniający ognia</t>
+  </si>
+  <si>
+    <t>nie stosuje się takiego skrótu</t>
+  </si>
+  <si>
+    <t>Pytanie: Ochotnicze Straże Pożarne są:</t>
+  </si>
+  <si>
+    <t>stowarzyszeniami</t>
+  </si>
+  <si>
+    <t>jednostkami organizacyjnymi PSP</t>
+  </si>
+  <si>
+    <t>organami administracji rządowej</t>
+  </si>
+  <si>
+    <t>Pytanie: Co ile lat w OSP odbywają się zebrania sprawozdawczo wyborcze
+(zebrania statutowe)?</t>
+  </si>
+  <si>
+    <t>2 lata</t>
+  </si>
+  <si>
+    <t>4 lata</t>
+  </si>
+  <si>
+    <t>5 lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zarząd  </t>
+  </si>
+  <si>
+    <t>Pytanie: Ile butli z gazem propanem butanem o pojemności 11 kg może znajdować
+się w mieszkaniu?</t>
+  </si>
+  <si>
+    <t>Pytanie: Szerokość wyjścia ewakuacyjnego nie może być mniejsza niż:</t>
+  </si>
+  <si>
+    <t>0,8m</t>
+  </si>
+  <si>
+    <t>0,9m</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaki jest najwyższy stopień aspirancki?</t>
+  </si>
+  <si>
+    <t>aspirant sztabowy</t>
+  </si>
+  <si>
+    <t>starszy aspirant sztabowy</t>
+  </si>
+  <si>
+    <t>starszy aspirant</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaki rodzaj drzewostanu jest najbardziej podatny na rozwój pożaru?</t>
+  </si>
+  <si>
+    <t>iglasty</t>
+  </si>
+  <si>
+    <t>liściasty</t>
+  </si>
+  <si>
+    <t>mieszany</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>Pytanie: Środkiem uodporniającym drewno na działanie ognia jest:</t>
+  </si>
+  <si>
+    <t>pyran</t>
+  </si>
+  <si>
+    <t>fobos</t>
+  </si>
+  <si>
+    <t>Pytanie: Symbol SH-10 oznacza:</t>
+  </si>
+  <si>
+    <t>samochód specjalny holowniczy o mocy 100KM</t>
+  </si>
+  <si>
+    <t>samochód specjalny, podnośnik hydrauliczny o wysięgu 10m.</t>
+  </si>
+  <si>
+    <t>samochód specjalny, podnośnik hydrauliczny o wysokości 10m. i udźwigu 10 ton</t>
+  </si>
+  <si>
+    <t>Pytanie: Wycofanym środkiem gaśniczym z uwagi na ochronę środowiska jest:</t>
+  </si>
+  <si>
+    <t>CO 2</t>
+  </si>
+  <si>
+    <t>halon</t>
+  </si>
+  <si>
+    <t>Pytanie: Eksplozymetr to:</t>
+  </si>
+  <si>
+    <t>urządzenie pomiaru siły eksplozji</t>
+  </si>
+  <si>
+    <t>urządzenie wyłączające klapy odcinające w czasie wybuchu</t>
+  </si>
+  <si>
+    <t>urządzenie do pomiaru stężeń wybuchowych</t>
+  </si>
+  <si>
+    <t>Pytanie: Czy wolno napełniać gazem butle o masie 11kg na stacjach gazu
+płynnego?</t>
+  </si>
+  <si>
+    <t>tak, jeżeli wykonana jest niezależna instalacja, nie przeznaczona do tankowania pojazdów</t>
+  </si>
+  <si>
+    <t>Pytanie: Pojemność zbiornika wodnego w samochodzie GCBA 5/24 wynosi:</t>
+  </si>
+  <si>
+    <t>2400 l</t>
+  </si>
+  <si>
+    <t>5000 l</t>
+  </si>
+  <si>
+    <t>Pytanie: Do wytwarzania i podawania piany średniej służy:</t>
+  </si>
+  <si>
+    <t>wytwornica pianowa</t>
+  </si>
+  <si>
+    <t>prądownica pianowa</t>
+  </si>
+  <si>
+    <t>agregat pianowy</t>
+  </si>
+  <si>
+    <t>Pytanie: Tryskacze służą do:</t>
+  </si>
+  <si>
+    <t>szybkiego uruchomienia samochodu gaśniczego</t>
+  </si>
+  <si>
+    <t>gaszenia pożaru</t>
+  </si>
+  <si>
+    <t>wykrywania pożaru</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaka jest średnica nominalna hydrantów zewnętrznych podziemnych?</t>
+  </si>
+  <si>
+    <t>80, 100</t>
+  </si>
+  <si>
+    <t>100, 125</t>
+  </si>
+  <si>
+    <t>Pytanie: Zaczadzenie następuje wskutek działania:</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Pytanie: W przeciwpożarowe wyłączniki prądu muszą być wyposażone
+obiekty:</t>
+  </si>
+  <si>
+    <t>o powierzchni użytkowej ponad 1000m 2</t>
+  </si>
+  <si>
+    <t>o kubaturze powyżej 1000m 3</t>
+  </si>
+  <si>
+    <t>o wysokości powyżej 12m.</t>
   </si>
 </sst>
 </file>
@@ -841,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,6 +2152,1009 @@
         <v>3</v>
       </c>
     </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" t="s">
+        <v>217</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" t="s">
+        <v>242</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" t="s">
+        <v>257</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" t="s">
+        <v>260</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" t="s">
+        <v>263</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" t="s">
+        <v>266</v>
+      </c>
+      <c r="D73" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" t="s">
+        <v>271</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" t="s">
+        <v>275</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" t="s">
+        <v>279</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" t="s">
+        <v>284</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" t="s">
+        <v>288</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" t="s">
+        <v>290</v>
+      </c>
+      <c r="C80" t="s">
+        <v>291</v>
+      </c>
+      <c r="D80" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B81" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" t="s">
+        <v>295</v>
+      </c>
+      <c r="D81" t="s">
+        <v>296</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" t="s">
+        <v>298</v>
+      </c>
+      <c r="C82" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86">
+        <v>0.6</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B87" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" t="s">
+        <v>308</v>
+      </c>
+      <c r="D87" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" t="s">
+        <v>313</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" t="s">
+        <v>316</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B90" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" t="s">
+        <v>319</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B91" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91" t="s">
+        <v>323</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" t="s">
+        <v>326</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" t="s">
+        <v>328</v>
+      </c>
+      <c r="C93" t="s">
+        <v>329</v>
+      </c>
+      <c r="D93" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" t="s">
+        <v>60</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" t="s">
+        <v>334</v>
+      </c>
+      <c r="C95" t="s">
+        <v>335</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B96" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" t="s">
+        <v>338</v>
+      </c>
+      <c r="D96" t="s">
+        <v>339</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" t="s">
+        <v>342</v>
+      </c>
+      <c r="D97" t="s">
+        <v>343</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" t="s">
+        <v>346</v>
+      </c>
+      <c r="D98">
+        <v>80</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" t="s">
+        <v>348</v>
+      </c>
+      <c r="D99" t="s">
+        <v>349</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B100" t="s">
+        <v>351</v>
+      </c>
+      <c r="C100" t="s">
+        <v>352</v>
+      </c>
+      <c r="D100" t="s">
+        <v>353</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pytania.xlsx
+++ b/pytania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.operacyjny\Desktop\Straz pliki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7102D9-6238-4B5C-99CE-230DCFAE1643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDCC3B0-03AF-4F79-A9E9-32E2DF922B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="427">
   <si>
     <t>Pytanie</t>
   </si>
@@ -1119,18 +1119,253 @@
   </si>
   <si>
     <t>o wysokości powyżej 12m.</t>
+  </si>
+  <si>
+    <t>Pytanie:  W jednostkach PSP jako podstawowy system zabezpieczenia dróg
+oddechowych stosuje się:</t>
+  </si>
+  <si>
+    <t>aparaty tlenowe</t>
+  </si>
+  <si>
+    <t>aparaty powietrzne nadciśnieniowe</t>
+  </si>
+  <si>
+    <t>aparaty powietrzne podciśnieniowe</t>
+  </si>
+  <si>
+    <t>Pytanie: W jakim stopniu jest obecny Komendant Wojewódzki Państwowej
+Straży Pożarnej w Warszawie?</t>
+  </si>
+  <si>
+    <t>starszy brygadie</t>
+  </si>
+  <si>
+    <t>nadbrygadier generał</t>
+  </si>
+  <si>
+    <t>nadbrygadier</t>
+  </si>
+  <si>
+    <t>Pytanie: Flame Control to środek</t>
+  </si>
+  <si>
+    <t>gaśniczy</t>
+  </si>
+  <si>
+    <t>ogniochronny</t>
+  </si>
+  <si>
+    <t>absorbent</t>
+  </si>
+  <si>
+    <t>Pytanie: Prawo do wyznaczania w lesie miejsca na palenie ogniska ma:</t>
+  </si>
+  <si>
+    <t>właściciel lub zarządca lasu</t>
+  </si>
+  <si>
+    <t>Komendant Powiatowy lub Miejski PSP</t>
+  </si>
+  <si>
+    <t>osoba dorosła, pod warunkiem zachowania środków ostrożności</t>
+  </si>
+  <si>
+    <t>Pytanie: Do gazów gaśniczych można zaliczyć:</t>
+  </si>
+  <si>
+    <t>Pytanie: Pianą można gasić pożary klasy:</t>
+  </si>
+  <si>
+    <t>klasy A i B</t>
+  </si>
+  <si>
+    <t>klasy C i D</t>
+  </si>
+  <si>
+    <t>tylko klasy C</t>
+  </si>
+  <si>
+    <t>Pytanie:  Pożary metali lekkich zaliczają się do klasy pożarów:</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Pytanie: Po haśle „Do akcji gotuj” przy zasilaniu samochodu z hydrantu,
+kierowca:</t>
+  </si>
+  <si>
+    <t>pomaga w budowie linii głównej</t>
+  </si>
+  <si>
+    <t>przeprowadza rozpoznanie wodne</t>
+  </si>
+  <si>
+    <t>ustawia samochód w miejscu wskazanym przez dowódcę, a następnie uruchamia autopompę</t>
+  </si>
+  <si>
+    <t>Pytanie: Czego nie wolno gasić wodą?</t>
+  </si>
+  <si>
+    <t>drewna</t>
+  </si>
+  <si>
+    <t>węgla</t>
+  </si>
+  <si>
+    <t>sodu</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaki narząd jest najbardziej wrażliwy na niedotlenienie?</t>
+  </si>
+  <si>
+    <t>serce</t>
+  </si>
+  <si>
+    <t>mózg</t>
+  </si>
+  <si>
+    <t>nerki</t>
+  </si>
+  <si>
+    <t>Pytanie: W mięśniu czwórgłowym uda znajduje się wbity pręt metalowy
+pierwsza pomoc polega na:</t>
+  </si>
+  <si>
+    <t>szybkim usunięciu przedmiotu</t>
+  </si>
+  <si>
+    <t>zabezpieczenie przedmiotu przed przemieszczeniem i opatrzenie
+rany</t>
+  </si>
+  <si>
+    <t>zebraniu danych osobowych póki pacjent jest przytomny</t>
+  </si>
+  <si>
+    <t>Pytanie: Wstrząs jest to:</t>
+  </si>
+  <si>
+    <t>stan niedotlenienia mózgu</t>
+  </si>
+  <si>
+    <t>zespół drgawek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> odruch człowieka na działanie prądu elektrycznego</t>
+  </si>
+  <si>
+    <t>Pytanie: Krew tętniczą wypływająca z rany poznamy po:</t>
+  </si>
+  <si>
+    <t>ciemnobrunatnej barwie</t>
+  </si>
+  <si>
+    <t>spokojnym wypływie</t>
+  </si>
+  <si>
+    <t>jasnoczerwonej barwie</t>
+  </si>
+  <si>
+    <t>Pytanie: Co oznacza znak gestowy „Prawa ręka podniesiona w górę”:</t>
+  </si>
+  <si>
+    <t>uwaga</t>
+  </si>
+  <si>
+    <t>Pytanie:  Mostek przejazdowy służy do:</t>
+  </si>
+  <si>
+    <t>umożliwienia przejazdu samochodu przez rzekę</t>
+  </si>
+  <si>
+    <t>zabezpieczenia węży przed uszkodzeniem układanych na ulicach i
+drogach</t>
+  </si>
+  <si>
+    <t>sprawiania drabiny pożarniczej</t>
+  </si>
+  <si>
+    <t>Pytanie: Dym biało-żółty wydziela się podczas palenia:</t>
+  </si>
+  <si>
+    <t>siana</t>
+  </si>
+  <si>
+    <t>celuloidu</t>
+  </si>
+  <si>
+    <t>gumy</t>
+  </si>
+  <si>
+    <t>Pytanie: Stosunek służbowy strażaka powstaje z dniem:</t>
+  </si>
+  <si>
+    <t>powołania</t>
+  </si>
+  <si>
+    <t>mianowania</t>
+  </si>
+  <si>
+    <t>ślubowania</t>
+  </si>
+  <si>
+    <t>Pytanie: Podoficerom pełniącym służbę w jednostkach ratowniczo –
+gaśniczych kolejne stopnie służbowe nadaje:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Komendant /Miejski/ Powiatowy PSP</t>
+  </si>
+  <si>
+    <t>Komendant Główny PSP</t>
+  </si>
+  <si>
+    <t>Pytanie: Wytwornica pianowa WP 2/75 służy do wytwarzania piany:</t>
+  </si>
+  <si>
+    <t>średniej</t>
+  </si>
+  <si>
+    <t>lekkiej</t>
+  </si>
+  <si>
+    <t>ciężkiej</t>
+  </si>
+  <si>
+    <t>Pytanie: W jakim mieści na terenie woj. kujawsko pomorskiego znajduje się
+Szkoła Podoficerska?</t>
+  </si>
+  <si>
+    <t>Toruń</t>
+  </si>
+  <si>
+    <t>Włocławek</t>
+  </si>
+  <si>
+    <t>Bydgoszcz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1154,11 +1389,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1439,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,6 +3391,346 @@
         <v>2</v>
       </c>
     </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B101" t="s">
+        <v>355</v>
+      </c>
+      <c r="C101" t="s">
+        <v>356</v>
+      </c>
+      <c r="D101" t="s">
+        <v>357</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B102" t="s">
+        <v>359</v>
+      </c>
+      <c r="C102" t="s">
+        <v>360</v>
+      </c>
+      <c r="D102" t="s">
+        <v>361</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" t="s">
+        <v>364</v>
+      </c>
+      <c r="D103" t="s">
+        <v>365</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>366</v>
+      </c>
+      <c r="B104" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" t="s">
+        <v>368</v>
+      </c>
+      <c r="D104" t="s">
+        <v>369</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>370</v>
+      </c>
+      <c r="B105" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>371</v>
+      </c>
+      <c r="B106" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" t="s">
+        <v>373</v>
+      </c>
+      <c r="D106" t="s">
+        <v>374</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" t="s">
+        <v>376</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" t="s">
+        <v>377</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B108" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108" t="s">
+        <v>380</v>
+      </c>
+      <c r="D108" t="s">
+        <v>381</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>382</v>
+      </c>
+      <c r="B109" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109" t="s">
+        <v>384</v>
+      </c>
+      <c r="D109" t="s">
+        <v>385</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>386</v>
+      </c>
+      <c r="B110" t="s">
+        <v>387</v>
+      </c>
+      <c r="C110" t="s">
+        <v>388</v>
+      </c>
+      <c r="D110" t="s">
+        <v>389</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B111" t="s">
+        <v>391</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D111" t="s">
+        <v>393</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>394</v>
+      </c>
+      <c r="B112" t="s">
+        <v>395</v>
+      </c>
+      <c r="C112" t="s">
+        <v>396</v>
+      </c>
+      <c r="D112" t="s">
+        <v>397</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>398</v>
+      </c>
+      <c r="B113" t="s">
+        <v>399</v>
+      </c>
+      <c r="C113" t="s">
+        <v>400</v>
+      </c>
+      <c r="D113" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>402</v>
+      </c>
+      <c r="B114" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" t="s">
+        <v>231</v>
+      </c>
+      <c r="D114" t="s">
+        <v>403</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>404</v>
+      </c>
+      <c r="B115" t="s">
+        <v>405</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D115" t="s">
+        <v>407</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>408</v>
+      </c>
+      <c r="B116" t="s">
+        <v>409</v>
+      </c>
+      <c r="C116" t="s">
+        <v>410</v>
+      </c>
+      <c r="D116" t="s">
+        <v>411</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>412</v>
+      </c>
+      <c r="B117" t="s">
+        <v>413</v>
+      </c>
+      <c r="C117" t="s">
+        <v>414</v>
+      </c>
+      <c r="D117" t="s">
+        <v>415</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B118" t="s">
+        <v>417</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
+        <v>418</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>419</v>
+      </c>
+      <c r="B119" t="s">
+        <v>420</v>
+      </c>
+      <c r="C119" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" t="s">
+        <v>422</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B120" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" t="s">
+        <v>425</v>
+      </c>
+      <c r="D120" t="s">
+        <v>426</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pytania.xlsx
+++ b/pytania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.operacyjny\Desktop\Straz pliki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDCC3B0-03AF-4F79-A9E9-32E2DF922B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF47AEA-629F-4CBA-86C1-3458773059D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
